--- a/medicine/Enfance/Dinomir_le_géant/Dinomir_le_géant.xlsx
+++ b/medicine/Enfance/Dinomir_le_géant/Dinomir_le_géant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dinomir_le_g%C3%A9ant</t>
+          <t>Dinomir_le_géant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dinomir le géant (Monster) est une série de livres pour enfants écrits par les éducatrices Ellen Blance et Ann Cook. Créée en 1973 et illustrée par Quentin Blake, la série est destinée à de jeunes enfants pour les aider à apprendre à lire[1].
+Dinomir le géant (Monster) est une série de livres pour enfants écrits par les éducatrices Ellen Blance et Ann Cook. Créée en 1973 et illustrée par Quentin Blake, la série est destinée à de jeunes enfants pour les aider à apprendre à lire.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dinomir_le_g%C3%A9ant</t>
+          <t>Dinomir_le_géant</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Série</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dinomir le géant va à la ville (Monster Comes to the City, 1973)
 Dinomir le géant cherche une maison (Monster Looks for a House, 1974)
